--- a/Code/Results/Cases/Case_8_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_2/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033174073788649</v>
+        <v>1.023977567191331</v>
       </c>
       <c r="D2">
-        <v>1.048222569523192</v>
+        <v>1.040731243202871</v>
       </c>
       <c r="E2">
-        <v>1.043881674523911</v>
+        <v>1.036578555315515</v>
       </c>
       <c r="F2">
-        <v>1.05348162857802</v>
+        <v>1.047057449926367</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.062823597272722</v>
+        <v>1.058876647971537</v>
       </c>
       <c r="J2">
-        <v>1.054405887306821</v>
+        <v>1.045464023680974</v>
       </c>
       <c r="K2">
-        <v>1.0590486083323</v>
+        <v>1.051650858332336</v>
       </c>
       <c r="L2">
-        <v>1.05476173271691</v>
+        <v>1.047550770532228</v>
       </c>
       <c r="M2">
-        <v>1.064242963720661</v>
+        <v>1.057897933056229</v>
       </c>
       <c r="N2">
-        <v>1.055903264608843</v>
+        <v>1.035088029263292</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.059416145105047</v>
+        <v>1.05439458969445</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.052822580771234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.047600523690325</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025297163164449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038494639560778</v>
+        <v>1.028401209432867</v>
       </c>
       <c r="D3">
-        <v>1.051872115420001</v>
+        <v>1.04364857136276</v>
       </c>
       <c r="E3">
-        <v>1.048120487377322</v>
+        <v>1.040039680499069</v>
       </c>
       <c r="F3">
-        <v>1.057245498723124</v>
+        <v>1.050177099682698</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.064270832575848</v>
+        <v>1.059933199849559</v>
       </c>
       <c r="J3">
-        <v>1.057988208603609</v>
+        <v>1.048146473590972</v>
       </c>
       <c r="K3">
-        <v>1.061881666530883</v>
+        <v>1.053751836074528</v>
       </c>
       <c r="L3">
-        <v>1.058172566190191</v>
+        <v>1.050184649495199</v>
       </c>
       <c r="M3">
-        <v>1.067194785237282</v>
+        <v>1.060205818766466</v>
       </c>
       <c r="N3">
-        <v>1.05949067321277</v>
+        <v>1.036591914042499</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.061752251137871</v>
+        <v>1.056221089961652</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.054823114174991</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.049083154320984</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025797012145644</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.041863348287032</v>
+        <v>1.03120881614653</v>
       </c>
       <c r="D4">
-        <v>1.054185166190834</v>
+        <v>1.045502218181802</v>
       </c>
       <c r="E4">
-        <v>1.050809164942574</v>
+        <v>1.042241638994375</v>
       </c>
       <c r="F4">
-        <v>1.059634082829202</v>
+        <v>1.052162157807292</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.06517418690205</v>
+        <v>1.060590936801121</v>
       </c>
       <c r="J4">
-        <v>1.060253595627384</v>
+        <v>1.04984654004858</v>
       </c>
       <c r="K4">
-        <v>1.063670815934971</v>
+        <v>1.055080819045375</v>
       </c>
       <c r="L4">
-        <v>1.060330731322355</v>
+        <v>1.051855635226802</v>
       </c>
       <c r="M4">
-        <v>1.069062352595446</v>
+        <v>1.061669296073372</v>
       </c>
       <c r="N4">
-        <v>1.061759277345962</v>
+        <v>1.037545027969188</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.063230262136693</v>
+        <v>1.057379308692827</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.0560890255511</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.050023796761419</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026110681803431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.043270048733774</v>
+        <v>1.032381690459354</v>
       </c>
       <c r="D5">
-        <v>1.055153751859638</v>
+        <v>1.04627923028789</v>
       </c>
       <c r="E5">
-        <v>1.051934703843167</v>
+        <v>1.04316399759846</v>
       </c>
       <c r="F5">
-        <v>1.060633659160592</v>
+        <v>1.052993415308089</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.065550107872024</v>
+        <v>1.060864316084296</v>
       </c>
       <c r="J5">
-        <v>1.061201166320312</v>
+        <v>1.050558067074996</v>
       </c>
       <c r="K5">
-        <v>1.064420077022801</v>
+        <v>1.055638015950496</v>
       </c>
       <c r="L5">
-        <v>1.061234346990637</v>
+        <v>1.052555696122392</v>
       </c>
       <c r="M5">
-        <v>1.0698438326429</v>
+        <v>1.06228207307816</v>
       </c>
       <c r="N5">
-        <v>1.062708193697962</v>
+        <v>1.037943931713367</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.063848732228793</v>
+        <v>1.05786426943656</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.056625809189691</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.050425535122659</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026242969884649</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.0435144233373</v>
+        <v>1.032584259710709</v>
       </c>
       <c r="D6">
-        <v>1.055324717983382</v>
+        <v>1.046416132641536</v>
       </c>
       <c r="E6">
-        <v>1.052132347597554</v>
+        <v>1.043324919524062</v>
       </c>
       <c r="F6">
-        <v>1.060808467260223</v>
+        <v>1.053138060701926</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.065617502061451</v>
+        <v>1.060913471600362</v>
       </c>
       <c r="J6">
-        <v>1.061368528147476</v>
+        <v>1.050683281482685</v>
       </c>
       <c r="K6">
-        <v>1.064554182768086</v>
+        <v>1.055737984917452</v>
       </c>
       <c r="L6">
-        <v>1.061394699734975</v>
+        <v>1.052679280397854</v>
       </c>
       <c r="M6">
-        <v>1.069982001894876</v>
+        <v>1.06239002588176</v>
       </c>
       <c r="N6">
-        <v>1.062875793198117</v>
+        <v>1.038014130604527</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.063958080523199</v>
+        <v>1.057949704842992</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.056729181665299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.050505689699846</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026268352356966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.041907067865032</v>
+        <v>1.031281556848548</v>
       </c>
       <c r="D7">
-        <v>1.054222456196413</v>
+        <v>1.045561420939604</v>
       </c>
       <c r="E7">
-        <v>1.050849741838323</v>
+        <v>1.042309755102526</v>
       </c>
       <c r="F7">
-        <v>1.059668083800661</v>
+        <v>1.052217382497769</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.065192017722842</v>
+        <v>1.060620443720862</v>
       </c>
       <c r="J7">
-        <v>1.060290592173857</v>
+        <v>1.049911757085183</v>
       </c>
       <c r="K7">
-        <v>1.063704913980455</v>
+        <v>1.055136554067063</v>
       </c>
       <c r="L7">
-        <v>1.060368066147559</v>
+        <v>1.051920169832997</v>
       </c>
       <c r="M7">
-        <v>1.069093219956636</v>
+        <v>1.061721128952885</v>
       </c>
       <c r="N7">
-        <v>1.061796326431775</v>
+        <v>1.03763290699632</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.063254690843509</v>
+        <v>1.057420330008706</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.056132813668067</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.05008499243872</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026135584290479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035019962170657</v>
+        <v>1.025632859740607</v>
       </c>
       <c r="D8">
-        <v>1.049497251755734</v>
+        <v>1.041844493099701</v>
       </c>
       <c r="E8">
-        <v>1.045358699565615</v>
+        <v>1.037900627411949</v>
       </c>
       <c r="F8">
-        <v>1.054790080107433</v>
+        <v>1.04823112750693</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.063335968863586</v>
+        <v>1.059302896387976</v>
       </c>
       <c r="J8">
-        <v>1.055658882909694</v>
+        <v>1.046522764220166</v>
       </c>
       <c r="K8">
-        <v>1.060046030711554</v>
+        <v>1.052485985361042</v>
       </c>
       <c r="L8">
-        <v>1.055957407790733</v>
+        <v>1.048590564006261</v>
       </c>
       <c r="M8">
-        <v>1.065275711667036</v>
+        <v>1.058795129574986</v>
       </c>
       <c r="N8">
-        <v>1.057158039609193</v>
+        <v>1.035837374862602</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.060233474696194</v>
+        <v>1.055104646902772</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.053550277863466</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.048215850632298</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02552536994857</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022241759779835</v>
+        <v>1.015086096306347</v>
       </c>
       <c r="D9">
-        <v>1.040740435262741</v>
+        <v>1.03489871430918</v>
       </c>
       <c r="E9">
-        <v>1.035202743131601</v>
+        <v>1.029681932206004</v>
       </c>
       <c r="F9">
-        <v>1.045781754851932</v>
+        <v>1.04082311320978</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.059781312487259</v>
+        <v>1.056711415587964</v>
       </c>
       <c r="J9">
-        <v>1.04703283250828</v>
+        <v>1.040117146506178</v>
       </c>
       <c r="K9">
-        <v>1.053205384423638</v>
+        <v>1.047449867980297</v>
       </c>
       <c r="L9">
-        <v>1.047749379833099</v>
+        <v>1.04231112090181</v>
       </c>
       <c r="M9">
-        <v>1.058173292147957</v>
+        <v>1.053286851131823</v>
       </c>
       <c r="N9">
-        <v>1.048519739226787</v>
+        <v>1.032265373682476</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.054612513825092</v>
+        <v>1.050745287296052</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.048710515569521</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.044651660918058</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024313902953841</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.013413026251224</v>
+        <v>1.00802452411634</v>
       </c>
       <c r="D10">
-        <v>1.034735035476889</v>
+        <v>1.030310045647019</v>
       </c>
       <c r="E10">
-        <v>1.028262643589097</v>
+        <v>1.024284970065078</v>
       </c>
       <c r="F10">
-        <v>1.039651564168024</v>
+        <v>1.035959050149147</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.057288492002301</v>
+        <v>1.054969089039986</v>
       </c>
       <c r="J10">
-        <v>1.041104399323647</v>
+        <v>1.035923342779588</v>
       </c>
       <c r="K10">
-        <v>1.048504235232945</v>
+        <v>1.044152790060011</v>
       </c>
       <c r="L10">
-        <v>1.042139692599782</v>
+        <v>1.038229171761139</v>
       </c>
       <c r="M10">
-        <v>1.05333999337167</v>
+        <v>1.049708049131242</v>
       </c>
       <c r="N10">
-        <v>1.042582886987031</v>
+        <v>1.030144773836357</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.050838023579594</v>
+        <v>1.047963792685865</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.045403155378916</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.042338773029791</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023565604640367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.01060899206824</v>
+        <v>1.005897315184115</v>
       </c>
       <c r="D11">
-        <v>1.033027564923611</v>
+        <v>1.029138503776234</v>
       </c>
       <c r="E11">
-        <v>1.026422096085839</v>
+        <v>1.022999343155802</v>
       </c>
       <c r="F11">
-        <v>1.038172265581505</v>
+        <v>1.034955169707019</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.056693199821556</v>
+        <v>1.054657662150206</v>
       </c>
       <c r="J11">
-        <v>1.039546988900549</v>
+        <v>1.035026800363711</v>
       </c>
       <c r="K11">
-        <v>1.047352397038408</v>
+        <v>1.043531064988387</v>
       </c>
       <c r="L11">
-        <v>1.040862358994081</v>
+        <v>1.037500179687501</v>
       </c>
       <c r="M11">
-        <v>1.052408508638936</v>
+        <v>1.049246676040899</v>
       </c>
       <c r="N11">
-        <v>1.041023264862494</v>
+        <v>1.030082232942113</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.050531093522583</v>
+        <v>1.048030123872665</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.044621190144751</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.041934912337058</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023632057988974</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.009958643788148</v>
+        <v>1.005347981081583</v>
       </c>
       <c r="D12">
-        <v>1.032725811952337</v>
+        <v>1.028914549755452</v>
       </c>
       <c r="E12">
-        <v>1.026178022597581</v>
+        <v>1.022801453559565</v>
       </c>
       <c r="F12">
-        <v>1.038062508385923</v>
+        <v>1.034905858349173</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.056654341136343</v>
+        <v>1.054660171962999</v>
       </c>
       <c r="J12">
-        <v>1.0393474351346</v>
+        <v>1.034927716721475</v>
       </c>
       <c r="K12">
-        <v>1.047251792740711</v>
+        <v>1.043507995147042</v>
       </c>
       <c r="L12">
-        <v>1.040820309760825</v>
+        <v>1.037504474324759</v>
       </c>
       <c r="M12">
-        <v>1.052495099889015</v>
+        <v>1.049393538751177</v>
       </c>
       <c r="N12">
-        <v>1.040823427707308</v>
+        <v>1.030217917195808</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.050921915302825</v>
+        <v>1.048469431356629</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.044550061347878</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.041918601831026</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023753145641534</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.010962399166124</v>
+        <v>1.005974312462</v>
       </c>
       <c r="D13">
-        <v>1.033522082619727</v>
+        <v>1.02941094063567</v>
       </c>
       <c r="E13">
-        <v>1.027184574648661</v>
+        <v>1.023428774727149</v>
       </c>
       <c r="F13">
-        <v>1.039037715324554</v>
+        <v>1.035597271183044</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.057065835511139</v>
+        <v>1.054913328084432</v>
       </c>
       <c r="J13">
-        <v>1.04021899672779</v>
+        <v>1.035436258627348</v>
       </c>
       <c r="K13">
-        <v>1.047992073734454</v>
+        <v>1.043953344514456</v>
       </c>
       <c r="L13">
-        <v>1.041766507300021</v>
+        <v>1.038077897492498</v>
       </c>
       <c r="M13">
-        <v>1.053411719655867</v>
+        <v>1.050030993106785</v>
       </c>
       <c r="N13">
-        <v>1.04169622701793</v>
+        <v>1.030460588319251</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.051920233929852</v>
+        <v>1.04924766515987</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.045070991712305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.042230757779391</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023933253096013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.012410220416138</v>
+        <v>1.006957133779097</v>
       </c>
       <c r="D14">
-        <v>1.034574391973267</v>
+        <v>1.030095970170385</v>
       </c>
       <c r="E14">
-        <v>1.028450885338068</v>
+        <v>1.024254937534763</v>
       </c>
       <c r="F14">
-        <v>1.040208626679341</v>
+        <v>1.03642693432915</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.057556252591313</v>
+        <v>1.055209657222248</v>
       </c>
       <c r="J14">
-        <v>1.041310610620261</v>
+        <v>1.03607856967153</v>
       </c>
       <c r="K14">
-        <v>1.048888622714351</v>
+        <v>1.0444880504678</v>
       </c>
       <c r="L14">
-        <v>1.042871783214743</v>
+        <v>1.038749881273288</v>
       </c>
       <c r="M14">
-        <v>1.054426145824823</v>
+        <v>1.050709216183133</v>
       </c>
       <c r="N14">
-        <v>1.042789391127338</v>
+        <v>1.030686417989703</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.052893713312866</v>
+        <v>1.049955755569482</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.045706270952168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.042610345846739</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024093383378767</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.013136250298363</v>
+        <v>1.007470254078155</v>
       </c>
       <c r="D15">
-        <v>1.035083543384896</v>
+        <v>1.03043763043184</v>
       </c>
       <c r="E15">
-        <v>1.029047865413661</v>
+        <v>1.024657564644663</v>
       </c>
       <c r="F15">
-        <v>1.040747954196341</v>
+        <v>1.036812273794415</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.057781460012554</v>
+        <v>1.055346296846248</v>
       </c>
       <c r="J15">
-        <v>1.041824728421485</v>
+        <v>1.036386300913934</v>
       </c>
       <c r="K15">
-        <v>1.049304408852569</v>
+        <v>1.044738622384766</v>
       </c>
       <c r="L15">
-        <v>1.043373008177594</v>
+        <v>1.039059558269678</v>
       </c>
       <c r="M15">
-        <v>1.054872376281353</v>
+        <v>1.051003561229477</v>
       </c>
       <c r="N15">
-        <v>1.04330423903481</v>
+        <v>1.030779539413396</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.053283607062371</v>
+        <v>1.050225674321728</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.046006026214924</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.042793878664144</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024155218633672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016696564396341</v>
+        <v>1.010109838258558</v>
       </c>
       <c r="D16">
-        <v>1.037486800478803</v>
+        <v>1.032117091750151</v>
       </c>
       <c r="E16">
-        <v>1.031802309922927</v>
+        <v>1.02660780909638</v>
       </c>
       <c r="F16">
-        <v>1.043185072459079</v>
+        <v>1.03859385189225</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.058782439716444</v>
+        <v>1.055964143241658</v>
       </c>
       <c r="J16">
-        <v>1.044188329329214</v>
+        <v>1.037852485379962</v>
       </c>
       <c r="K16">
-        <v>1.051175881674185</v>
+        <v>1.045894655847051</v>
       </c>
       <c r="L16">
-        <v>1.045585097839052</v>
+        <v>1.040477396529278</v>
       </c>
       <c r="M16">
-        <v>1.0567815353054</v>
+        <v>1.052264837118181</v>
       </c>
       <c r="N16">
-        <v>1.045671196526937</v>
+        <v>1.031201241423583</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.05475428969022</v>
+        <v>1.051184164275591</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.047332300326733</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.043614641481941</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024372915422891</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018670883563077</v>
+        <v>1.011650912678901</v>
       </c>
       <c r="D17">
-        <v>1.038780990281653</v>
+        <v>1.033068592026789</v>
       </c>
       <c r="E17">
-        <v>1.033255120922149</v>
+        <v>1.027698259872801</v>
       </c>
       <c r="F17">
-        <v>1.044439475157248</v>
+        <v>1.039543405458293</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.059290556998462</v>
+        <v>1.056290574558296</v>
       </c>
       <c r="J17">
-        <v>1.045430003916866</v>
+        <v>1.038668610584927</v>
       </c>
       <c r="K17">
-        <v>1.052141579452188</v>
+        <v>1.046520630614459</v>
       </c>
       <c r="L17">
-        <v>1.046704152888413</v>
+        <v>1.041237463302592</v>
       </c>
       <c r="M17">
-        <v>1.057710739623307</v>
+        <v>1.052891886553942</v>
       </c>
       <c r="N17">
-        <v>1.046914634434925</v>
+        <v>1.03147303491278</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.055361140967433</v>
+        <v>1.051551809522311</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.048017607658541</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.04406002048688</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024461141563535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019429894405003</v>
+        <v>1.012315511268842</v>
       </c>
       <c r="D18">
-        <v>1.039202007113657</v>
+        <v>1.033412726101539</v>
       </c>
       <c r="E18">
-        <v>1.033673418991881</v>
+        <v>1.028063679983731</v>
       </c>
       <c r="F18">
-        <v>1.044738882096622</v>
+        <v>1.039782131180983</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.059402035636428</v>
+        <v>1.056361012028193</v>
       </c>
       <c r="J18">
-        <v>1.045778439646877</v>
+        <v>1.038921193502234</v>
       </c>
       <c r="K18">
-        <v>1.052376714266692</v>
+        <v>1.046678602696446</v>
       </c>
       <c r="L18">
-        <v>1.046935162080116</v>
+        <v>1.041414963897113</v>
       </c>
       <c r="M18">
-        <v>1.057827601710678</v>
+        <v>1.05294777411016</v>
       </c>
       <c r="N18">
-        <v>1.047263564983639</v>
+        <v>1.031533304205553</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.055218805938544</v>
+        <v>1.051360486019993</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.04817239517053</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.044159075440913</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02441238209072</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019121084674874</v>
+        <v>1.012179388271295</v>
       </c>
       <c r="D19">
-        <v>1.038863968329724</v>
+        <v>1.033209385741505</v>
       </c>
       <c r="E19">
-        <v>1.033188247370334</v>
+        <v>1.027767649120273</v>
       </c>
       <c r="F19">
-        <v>1.044197987853597</v>
+        <v>1.039373155772331</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.059173259087761</v>
+        <v>1.056203200395914</v>
       </c>
       <c r="J19">
-        <v>1.045350162437711</v>
+        <v>1.038658053707922</v>
       </c>
       <c r="K19">
-        <v>1.051982830355703</v>
+        <v>1.046416882009067</v>
       </c>
       <c r="L19">
-        <v>1.046396077306922</v>
+        <v>1.041061623993894</v>
       </c>
       <c r="M19">
-        <v>1.057234363352388</v>
+        <v>1.052484096894268</v>
       </c>
       <c r="N19">
-        <v>1.046834679571712</v>
+        <v>1.031362882030191</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.054428820941707</v>
+        <v>1.050671743572396</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.047900211880916</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.04398098166159</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024244459579049</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.015783579206151</v>
+        <v>1.00978037921388</v>
       </c>
       <c r="D20">
-        <v>1.036365917262019</v>
+        <v>1.031453982401128</v>
       </c>
       <c r="E20">
-        <v>1.030143408833982</v>
+        <v>1.025613086047512</v>
       </c>
       <c r="F20">
-        <v>1.041306474044905</v>
+        <v>1.03716957853456</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.057978758275719</v>
+        <v>1.05540150520466</v>
       </c>
       <c r="J20">
-        <v>1.042719342032869</v>
+        <v>1.03693942095779</v>
       </c>
       <c r="K20">
-        <v>1.049798098332334</v>
+        <v>1.044965415671572</v>
       </c>
       <c r="L20">
-        <v>1.043676151807852</v>
+        <v>1.039220030957299</v>
       </c>
       <c r="M20">
-        <v>1.054659907104994</v>
+        <v>1.050588884460054</v>
       </c>
       <c r="N20">
-        <v>1.044200123100136</v>
+        <v>1.030521083859867</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.051872186593804</v>
+        <v>1.04865044331964</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.046359444781581</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.04295904296927</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023740644842277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.008896229533851</v>
+        <v>1.004928798318958</v>
       </c>
       <c r="D21">
-        <v>1.031649282854238</v>
+        <v>1.028349237062344</v>
       </c>
       <c r="E21">
-        <v>1.024672910583592</v>
+        <v>1.02199341167626</v>
       </c>
       <c r="F21">
-        <v>1.036448421760944</v>
+        <v>1.033790736869953</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.055970292305144</v>
+        <v>1.054245924490824</v>
       </c>
       <c r="J21">
-        <v>1.038026655061011</v>
+        <v>1.03422188417791</v>
       </c>
       <c r="K21">
-        <v>1.046054873545647</v>
+        <v>1.042812718450628</v>
       </c>
       <c r="L21">
-        <v>1.039201453366502</v>
+        <v>1.036569757630501</v>
       </c>
       <c r="M21">
-        <v>1.050770674974184</v>
+        <v>1.048159017278913</v>
       </c>
       <c r="N21">
-        <v>1.039500771974519</v>
+        <v>1.029800576533779</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.048753927700115</v>
+        <v>1.046686996174919</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.043716122329243</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.041440572442989</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023340278196475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.004490200512034</v>
+        <v>1.001815318067892</v>
       </c>
       <c r="D22">
-        <v>1.02864170256537</v>
+        <v>1.026368313673175</v>
       </c>
       <c r="E22">
-        <v>1.021195179610477</v>
+        <v>1.019694392888251</v>
       </c>
       <c r="F22">
-        <v>1.03337503316609</v>
+        <v>1.031659659507246</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.054679420424326</v>
+        <v>1.053497301867127</v>
       </c>
       <c r="J22">
-        <v>1.035034571360052</v>
+        <v>1.032476041113972</v>
       </c>
       <c r="K22">
-        <v>1.043666342672763</v>
+        <v>1.041434902813055</v>
       </c>
       <c r="L22">
-        <v>1.03635813335036</v>
+        <v>1.034885542150758</v>
       </c>
       <c r="M22">
-        <v>1.048313103408416</v>
+        <v>1.046628983465679</v>
       </c>
       <c r="N22">
-        <v>1.036504439171508</v>
+        <v>1.029291224152812</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.046808943970102</v>
+        <v>1.045476086279404</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.042014026401968</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.040451748119051</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023088958972815</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.006810248901345</v>
+        <v>1.003390252743251</v>
       </c>
       <c r="D23">
-        <v>1.03021794017935</v>
+        <v>1.027352598729022</v>
       </c>
       <c r="E23">
-        <v>1.023018796418675</v>
+        <v>1.020833935343863</v>
       </c>
       <c r="F23">
-        <v>1.034989186585468</v>
+        <v>1.032728628155041</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.055354959459599</v>
+        <v>1.053860211431872</v>
       </c>
       <c r="J23">
-        <v>1.036602668297122</v>
+        <v>1.033326889985955</v>
       </c>
       <c r="K23">
-        <v>1.044914116862834</v>
+        <v>1.042100264309819</v>
       </c>
       <c r="L23">
-        <v>1.037845051769092</v>
+        <v>1.035700140773726</v>
       </c>
       <c r="M23">
-        <v>1.049600446630421</v>
+        <v>1.047379993722905</v>
       </c>
       <c r="N23">
-        <v>1.038074762986092</v>
+        <v>1.029450126489332</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.047827780297465</v>
+        <v>1.046070456237358</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.042886705561837</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.040911689438177</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023187766281718</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.015748649502966</v>
+        <v>1.009770925907031</v>
       </c>
       <c r="D24">
-        <v>1.036313398794411</v>
+        <v>1.031420840842967</v>
       </c>
       <c r="E24">
-        <v>1.030072680249219</v>
+        <v>1.025571659551938</v>
       </c>
       <c r="F24">
-        <v>1.041232602466731</v>
+        <v>1.037115611788208</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.05794077324253</v>
+        <v>1.055373762464929</v>
       </c>
       <c r="J24">
-        <v>1.042653661323519</v>
+        <v>1.036897971586605</v>
       </c>
       <c r="K24">
-        <v>1.049731470611952</v>
+        <v>1.044917759808127</v>
       </c>
       <c r="L24">
-        <v>1.043591494897537</v>
+        <v>1.039164112228057</v>
       </c>
       <c r="M24">
-        <v>1.054572354390602</v>
+        <v>1.050520846368779</v>
       </c>
       <c r="N24">
-        <v>1.044134349116645</v>
+        <v>1.030489990785405</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.051762662048655</v>
+        <v>1.048556207313647</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.046285312110893</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.042895564961377</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023706900052221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025664128969663</v>
+        <v>1.017843611171818</v>
       </c>
       <c r="D25">
-        <v>1.043094281187523</v>
+        <v>1.036717801944316</v>
       </c>
       <c r="E25">
-        <v>1.037927780903265</v>
+        <v>1.031822970077136</v>
       </c>
       <c r="F25">
-        <v>1.048193524344214</v>
+        <v>1.042757111842613</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.060754306002494</v>
+        <v>1.057400489886355</v>
       </c>
       <c r="J25">
-        <v>1.049357620528232</v>
+        <v>1.041785035329546</v>
       </c>
       <c r="K25">
-        <v>1.05505851839258</v>
+        <v>1.04877165883462</v>
       </c>
       <c r="L25">
-        <v>1.049964524880289</v>
+        <v>1.043946573834833</v>
       </c>
       <c r="M25">
-        <v>1.060087082105419</v>
+        <v>1.054726053227169</v>
       </c>
       <c r="N25">
-        <v>1.050847828712383</v>
+        <v>1.033135196925991</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.056127119842012</v>
+        <v>1.051884302500377</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.050048871784549</v>
+        <v>1.045617255740046</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024632273411342</v>
       </c>
     </row>
   </sheetData>
